--- a/data/trans_bre/P23_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_4_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-26,6%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-36,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>-11,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,02%</t>
+          <t>-36,39%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17,79%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23,9%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 2,68</t>
+          <t>-5,51; 4,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 0,82</t>
+          <t>-7,1; 1,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,83</t>
+          <t>-2,67; 3,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 7,78</t>
+          <t>-5,14; 7,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-66,07; 58,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-67,73; 27,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-54,18; 108,87</t>
+          <t>-69,37; 168,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 155,21</t>
+          <t>-71,3; 38,55</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-46,37; 160,57</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-45,8; 232,69</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>74,0%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-51,52%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>-56,26%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>29,4%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>66,36%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 6,31</t>
+          <t>0,13; 8,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -0,53</t>
+          <t>-8,14; -0,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 3,52</t>
+          <t>-2,41; 3,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 3,6</t>
+          <t>-0,78; 5,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 199,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,01; -9,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,52; 118,24</t>
+          <t>-3,53; 316,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,24; 68,75</t>
+          <t>-80,58; -16,35</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-38,87; 133,8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-16,68; 259,06</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>45,67%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,7%</t>
+          <t>61,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-48,32%</t>
+          <t>18,13%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>44,49%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-29,3%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 4,03</t>
+          <t>-1,72; 4,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 2,66</t>
+          <t>-3,74; 2,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,55</t>
+          <t>-1,31; 3,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 0,77</t>
+          <t>-6,43; 1,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,07; 246,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,14; 506,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,33; 185,19</t>
+          <t>-50,01; 414,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-78,54; 38,9</t>
+          <t>-76,08; 548,8</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-32,92; 207,96</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-67,16; 50,63</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-34,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>28,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-44,39%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,59</t>
+          <t>-1,71; 4,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 0,1</t>
+          <t>-2,35; 2,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,54</t>
+          <t>-8,46; 0,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 96,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,42; 2,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,29; 77,1</t>
+          <t>-26,64; 134,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 42,12</t>
+          <t>-64,82; 180,47</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-77,94; 16,6</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>43,09%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-33,41%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29,56%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-6,48%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 4,11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; -0,02</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 2,68</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 1,8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 120,45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-57,41; 1,75</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-19,26; 90,89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-37,34; 41,81</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_4_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,49</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-11,86%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-36,39%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>17,79%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>23,9%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-0.8979335292890571</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.583016779864002</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.5282450653543547</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.813694464554706</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.1513054000645337</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.3809925270819556</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1287303180888409</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.2607590071406233</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,51; 4,24</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,1; 1,51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 3,47</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,14; 7,58</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-69,37; 168,42</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-71,3; 38,55</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-46,37; 160,57</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-45,8; 232,69</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.760446218083186</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.240633083022558</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.057106672597335</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-5.170832332084826</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.6816177899403815</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.714972723222554</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4973586603099517</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4476690676388941</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.006541181388958</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.168918552844434</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.37131453494172</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.827611089480604</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>1.592993811743834</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3480123866291819</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.473140928500775</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.374896302802486</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,71</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,54</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>91,06%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-56,26%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>29,4%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>66,36%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 8,3</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,14; -0,76</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,41; 3,8</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 5,09</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-3,53; 316,73</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-80,58; -16,35</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-38,87; 133,8</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-16,68; 259,06</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>4.626601754360186</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.538846607813596</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.206631914867674</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.261330710295314</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>1.196422356378733</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.5633664749793312</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.2848032452201001</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.6926032061347139</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,86</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>61,58%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>18,13%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>44,49%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-29,3%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.015028823373523</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.172128013327823</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.448235038714925</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.6239874731406833</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>0.1316795167815566</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.8111915018280071</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3952926471728378</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1485000291642674</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 4,73</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,74; 2,46</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 3,72</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,43; 1,65</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-50,01; 414,21</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-76,08; 548,8</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-32,92; 207,96</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-67,16; 50,63</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.989578149561789</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.8295551063252132</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.672186990725116</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.098600231119614</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>3.560485147639747</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.1788674011183602</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.301525014973104</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>2.692667274101218</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-3,25</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>28,53%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-44,39%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.705153396803389</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.4818135557502247</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.258183565840061</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.55455333709375</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.6121495356414989</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.24946171640036</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.4114855206313764</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.2568270784190143</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,71; 4,51</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,35; 2,37</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-8,46; 0,48</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-26,64; 134,63</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-64,82; 180,47</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-77,94; 16,6</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.873930248540251</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.373309111430602</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.547409213931699</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.078356203064123</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.4827809692273418</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7478141631028288</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.370309997268263</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.6505229955910519</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.073410971269731</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.530532687379887</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.592104269683157</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.885492677459295</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>4.450594053908246</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>5.832582940207375</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.940480017151063</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.5596975138246929</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>43,09%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-33,41%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>29,56%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-6,48%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 4,11</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,19; -0,02</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 2,68</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 1,8</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 120,45</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-57,41; 1,75</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-19,26; 90,89</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-37,34; 41,81</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.630800408763408</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.00607850528693</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.037764387154701</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.036405868484217</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.6914014808335894</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.4036573570783184</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2705137454670076</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2096799669657698</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.3058132482469266</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.342315540564043</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.9189675383246353</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.386193536697867</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.0186435814735666</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6239147788838458</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.2099734284945075</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2336743391789682</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.17729582348569</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.05655071550138411</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.627399000005886</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.422762975031339</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>1.749550920448899</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.008967833904582839</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.8839940105785493</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.9732906490292028</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
